--- a/SGS/SGS.xlsx
+++ b/SGS/SGS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t xml:space="preserve">Variável Primária:</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">Direção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu_nscore</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,6 +723,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2339,10 +2346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2522,37 +2529,199 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="36" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="36" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="44"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="J41" s="44"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="41" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D42" s="41" t="n">
+        <v>45</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F42" s="41" t="n">
+        <v>90</v>
+      </c>
+      <c r="G42" s="41" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="H42" s="41" t="n">
+        <v>135</v>
+      </c>
+      <c r="I42" s="41" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43" t="n">
+        <v>76</v>
+      </c>
+    </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
